--- a/biology/Médecine/Muscle_carré_des_lombes/Muscle_carré_des_lombes.xlsx
+++ b/biology/Médecine/Muscle_carré_des_lombes/Muscle_carré_des_lombes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_carr%C3%A9_des_lombes</t>
+          <t>Muscle_carré_des_lombes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle carré des lombes est un muscle quadrilatère, plus large en bas qu'en haut, de la région postérieure de l'abdomen près de la région lombaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_carr%C3%A9_des_lombes</t>
+          <t>Muscle_carré_des_lombes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est contenu dans une gaine aponévrotique très forte.
 Il est constitué d'avant en arrière (de ventral à dorsal) de 3 faisceaux :
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_carr%C3%A9_des_lombes</t>
+          <t>Muscle_carré_des_lombes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son innervation dépend du nerf subcostal et des trois premiers nerfs lombaux.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_carr%C3%A9_des_lombes</t>
+          <t>Muscle_carré_des_lombes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son action en prenant son point d'insertion fixe sur la crête iliaque par contraction unilatérale permet l'inclination homolatérale du tronc sur le bassin. Il a également un rôle expirateur accessoire, en déplaçant la dernière côte vers le bas et à la flexion du tronc.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_carr%C3%A9_des_lombes</t>
+          <t>Muscle_carré_des_lombes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Culture physique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le carré des lombes intervient à la fois comme muscle stabilisateur et synergique dans l'exercice du soulevé de terre[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le carré des lombes intervient à la fois comme muscle stabilisateur et synergique dans l'exercice du soulevé de terre.
 </t>
         </is>
       </c>
